--- a/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,53</t>
+          <t>21,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,39</t>
+          <t>15,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,16</t>
+          <t>23,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>236,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>146,53%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>147,44%</t>
+          <t>215,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>167,8%</t>
+          <t>113,32%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>136,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,85; 30,61</t>
+          <t>10,77; 30,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,63; 23,37</t>
+          <t>8,73; 23,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 22,57</t>
+          <t>12,41; 24,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,08; 27,64</t>
+          <t>11,91; 34,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>109,5; 479,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,14; 253,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,75; 275,31</t>
+          <t>63,21; 503,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,01; 294,96</t>
+          <t>50,28; 230,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85,72; 288,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51,8; 326,71</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,13</t>
+          <t>14,55</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>289,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>312,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>359,07%</t>
+          <t>261,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>201,16%</t>
+          <t>294,52%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>364,48%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>229,54%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,26</t>
+          <t>7,94; 17,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,81</t>
+          <t>8,11; 16,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,49</t>
+          <t>8,87; 17,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,23</t>
+          <t>9,87; 19,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>156,72; 520,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>98,93; 605,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>133,75; 702,68</t>
+          <t>107,87; 538,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>104,48; 361,32</t>
+          <t>76,9; 601,9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>118,79; 663,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>107,56; 440,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,72</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>170,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>317,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>267,41%</t>
+          <t>256,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>232,22%</t>
+          <t>643,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>278,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>523,73%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 12,12</t>
+          <t>6,09; 14,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 13,04</t>
+          <t>8,84; 16,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,88</t>
+          <t>6,01; 12,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,0</t>
+          <t>8,66; 16,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,94; 405,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,06; 744,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>125,86; 549,71</t>
+          <t>99,51; 611,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,81; 884,47</t>
+          <t>263,51; 1718,28</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>129,08; 531,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>194,54; 1470,23</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,7 +1072,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -930,32 +1082,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>18,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>252,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>242,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>251,93%</t>
+          <t>231,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>198,86%</t>
+          <t>240,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>259,22%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,81; 16,25</t>
+          <t>8,17; 16,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 15,72</t>
+          <t>7,88; 18,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,27; 14,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 17,55</t>
+          <t>13,81; 25,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>154,72; 377,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>153,56; 369,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>163,96; 357,19</t>
+          <t>88,77; 427,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>125,71; 286,82</t>
+          <t>75,83; 481,32</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>136,95; 449,0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13,34</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,01</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>243,5%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>245,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>262,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>240,99%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,63; 15,75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10,71; 15,75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 15,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 19,7</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>154,47; 361,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>154,82; 358,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>167,51; 370,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>165,37; 328,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>21,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,06</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>215,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>113,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>162,91%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>136,73%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>21.4878191344811</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>15.62954640779217</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.46385825939802</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>23.30694812268171</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>2.10140991821514</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.196460548641903</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.687784519674254</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.422655852713176</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 30,8</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,73; 23,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>12,41; 24,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 34,56</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>63,21; 503,41</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>50,28; 230,75</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>85,72; 288,75</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>51,8; 326,71</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>10.33961227097378</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9.093592335661008</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>12.94166308959003</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>12.07159267991758</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.5905622587379824</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5508805100077719</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.892411763682595</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.5278283755584818</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>31.06686687573002</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.78705965117491</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.80213419613355</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>34.62624219061038</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>5.165595482863671</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.435224546881484</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.95530154090004</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.387931533476361</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,5</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,55</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>261,12%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>294,52%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>364,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>229,54%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,94; 17,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 16,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 17,04</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,87; 19,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>107,87; 538,99</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>76,9; 601,9</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>118,79; 663,35</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>107,56; 440,73</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>12.82897043034381</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.96077023131311</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.22755901957045</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>14.52952047708366</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>2.864736499960816</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.990142083231037</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>3.566449716149752</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.360996349981042</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,01</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>256,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>643,21%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>278,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>523,73%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.280135696658391</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>8.214851263691775</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8.557359088792845</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9.715386797429009</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>1.22000079454925</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.7549040687177099</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.142006744242188</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1.088664293482286</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 14,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 16,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 12,24</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>8,66; 16,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>99,51; 611,87</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>263,51; 1718,28</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>129,08; 531,0</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>194,54; 1470,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.80475471865876</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.93733797708134</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.42729588938189</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.71001186096196</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>5.625500244100278</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>6.171053757463268</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>6.535925572868265</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.514283146094779</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,56</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>18,89</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>231,01%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>240,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>259,22%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.91146134940588</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.20960654417137</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.805606046144185</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.94440140453355</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>2.706097604883742</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>6.608763406219999</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.683862395440761</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>5.173839876285923</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>8,17; 16,62</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 18,28</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,81; 25,09</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>88,77; 427,07</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>75,83; 481,32</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>136,95; 449,0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>6.351062389313674</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>8.835952826141522</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.815244943417108</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>8.262621812081424</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>1.058334739686584</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>2.600196989158684</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>1.215126462215859</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>1.948339851795844</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.95825037266582</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.2676628143355</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.94190802331105</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.20845612177314</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>6.17688120126321</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>16.48033370915187</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>5.220014968568341</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>14.08456125703145</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13,25</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>13,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>243,5%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>245,28%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>262,44%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>240,99%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>10,63; 15,75</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>10,71; 15,75</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10,67; 15,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,03; 19,7</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>154,47; 361,77</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>154,82; 358,61</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>167,51; 370,0</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>165,37; 328,99</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>13.92931821289911</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.51979958044813</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>13.03596379350174</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>16.34438770324645</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>2.653447158357716</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.551455293854861</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.627507324793907</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.421004442915012</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>10.93304943161749</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10.79802794916062</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.64683272108537</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>12.85281209239238</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>1.65830625971601</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.544657533071532</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.650749862445237</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.569072576875025</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.58166639120719</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.35734353471859</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.43116998496032</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.10513570269931</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>4.216646380617844</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.84403681026053</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.681530780851442</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.716746324463468</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
